--- a/1er Corte/Documentos/Plantilla de Requerimientos.xlsx
+++ b/1er Corte/Documentos/Plantilla de Requerimientos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Dropbox\University\UCentral\6to\Programacion Avanzada\Proyecto\JAVAS\1er Corte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Dropbox\University\UCentral\6to\Programacion Avanzada\Proyecto\JAVAS\1er Corte\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="79">
   <si>
     <t>Numero</t>
   </si>
@@ -108,6 +108,159 @@
   </si>
   <si>
     <t xml:space="preserve">La pregunta, nivel y/o tema debe existir. </t>
+  </si>
+  <si>
+    <t>Crea pregunta</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Versión</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Seleccionar por Tema</t>
+  </si>
+  <si>
+    <t>Agosto 20 de 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versión </t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>El sistema permitirá hacer una selección del tema del cual quiere ingresar una pregunta</t>
+  </si>
+  <si>
+    <t>El tema sobre el cuál va a hacer la pregunta</t>
+  </si>
+  <si>
+    <t>La información perteneciente al tema de la pregunta</t>
+  </si>
+  <si>
+    <t>Debe existir el Tema sobre el cual se va hacer la pregunta</t>
+  </si>
+  <si>
+    <t>Se carga en una variable el tema de la pregunta</t>
+  </si>
+  <si>
+    <t>Seleccionar número de preguntas</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir ingresar el número de preguntas que quiere para el examen</t>
+  </si>
+  <si>
+    <t>Un número natural de 1 a 10</t>
+  </si>
+  <si>
+    <t>El número dselecionado</t>
+  </si>
+  <si>
+    <t>Debe haber un listado de número enteros del 1 al 10</t>
+  </si>
+  <si>
+    <t>Captura de número de preguntas</t>
+  </si>
+  <si>
+    <t>Seleccionar Tipo de pregunta</t>
+  </si>
+  <si>
+    <t>El sistema permitirá hacer una selección del tippo de pregunta que quiere en el examen</t>
+  </si>
+  <si>
+    <t>El tipo de la pregunta que se  quiere en el examen</t>
+  </si>
+  <si>
+    <t>La información perteneciente al tipo de la pregunta  que quiere en el examen</t>
+  </si>
+  <si>
+    <t>Debe existir el tipo de pregunta que se quiere en el examen</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>Seleccionar Complejidad</t>
+  </si>
+  <si>
+    <t>El sistema permitirá hacer una selección de la complejidad que quiere asignarle a la pregunta que se quiere en el examen</t>
+  </si>
+  <si>
+    <t>la complejidad de la pregunta que se  se quiere en el examen</t>
+  </si>
+  <si>
+    <t>La información perteneciente a la complejidad de la pregunta  se quiere en el examen</t>
+  </si>
+  <si>
+    <t>Debe existir la complejidad que se quiere de la pregunta en el examen</t>
+  </si>
+  <si>
+    <t>Ingresar porcentaje</t>
+  </si>
+  <si>
+    <t>El sistema permitirá hacer una selección del porcentaje que quiere asignarle a la pregunta que se quiere en el examen</t>
+  </si>
+  <si>
+    <t>El porcentaje de la pregunta que se  se quiere en el examen</t>
+  </si>
+  <si>
+    <t>La información perteneciente al porcentaje de la pregunta que se quiere en el examen</t>
+  </si>
+  <si>
+    <t>Debe existir el porcentaje que se quiere de la pregunta en el examen</t>
+  </si>
+  <si>
+    <t>Generar examen</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la generación del Examen</t>
+  </si>
+  <si>
+    <t>Ingreso de la orden generar examen</t>
+  </si>
+  <si>
+    <t>Examen generado</t>
+  </si>
+  <si>
+    <t>Haber ingresado previamente El tema, el número de preguntas, la complejidad, el tipo de pregunta y el porcentaje de cada pregunta</t>
+  </si>
+  <si>
+    <t>Examen guardado en la base de datos</t>
+  </si>
+  <si>
+    <t>RF-05</t>
+  </si>
+  <si>
+    <t>RF-06</t>
+  </si>
+  <si>
+    <t>RF-07</t>
+  </si>
+  <si>
+    <t>RF-08</t>
+  </si>
+  <si>
+    <t>RF-010</t>
+  </si>
+  <si>
+    <t>RF-011</t>
+  </si>
+  <si>
+    <t>Clasificar por materia</t>
+  </si>
+  <si>
+    <t>Clasificar por complejidad</t>
+  </si>
+  <si>
+    <t>Editar pregunta</t>
   </si>
 </sst>
 </file>
@@ -131,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,13 +292,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,233 +741,1410 @@
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="21">
+        <v>42243</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D13" s="21">
+        <v>42243</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F13" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="B22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D23" s="21">
+        <v>42243</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F23" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B25" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B26" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B27" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B28" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="B32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D33" s="21">
+        <v>42243</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B37" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B38" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="D41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D42" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B45" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B47" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B49" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="B51" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="16"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="14"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="7"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="13"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="13"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="14"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="16"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="7"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="13"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="7"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="13"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="13"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="7"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="13"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="13"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="7"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="13"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="14"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="81">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:G113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:G115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:G117"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:G109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:G111"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:G100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:G102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:G104"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:G96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:G98"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:G87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:G89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:G91"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:G83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:G85"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:G74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:G78"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:G72"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:G61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:G63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:G65"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:G57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:G59"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:G48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:G52"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:G44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:G46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
